--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-F2r.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.153886666666666</v>
+        <v>13.83830466666667</v>
       </c>
       <c r="N2">
-        <v>18.46166</v>
+        <v>41.514914</v>
       </c>
       <c r="O2">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="P2">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="Q2">
-        <v>999.3868684843399</v>
+        <v>2787.584530996266</v>
       </c>
       <c r="R2">
-        <v>8994.481816359059</v>
+        <v>25088.2607789664</v>
       </c>
       <c r="S2">
-        <v>0.03158570359128056</v>
+        <v>0.07583245400896756</v>
       </c>
       <c r="T2">
-        <v>0.03158570359128056</v>
+        <v>0.07583245400896758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>145.797898</v>
       </c>
       <c r="O3">
-        <v>0.637900629137472</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="P3">
-        <v>0.6379006291374719</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="Q3">
-        <v>7892.4920464259</v>
+        <v>9789.830351486973</v>
       </c>
       <c r="R3">
-        <v>71032.4284178331</v>
+        <v>88108.47316338276</v>
       </c>
       <c r="S3">
-        <v>0.2494428556511038</v>
+        <v>0.2663190484915648</v>
       </c>
       <c r="T3">
-        <v>0.2494428556511038</v>
+        <v>0.2663190484915648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H4">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.43313066666667</v>
+        <v>25.766648</v>
       </c>
       <c r="N4">
-        <v>64.299392</v>
+        <v>77.299944</v>
       </c>
       <c r="O4">
-        <v>0.281325198597561</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="P4">
-        <v>0.2813251985975609</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="Q4">
-        <v>3480.725352775808</v>
+        <v>5190.426942502582</v>
       </c>
       <c r="R4">
-        <v>31326.52817498227</v>
+        <v>46713.84248252324</v>
       </c>
       <c r="S4">
-        <v>0.1100086090206166</v>
+        <v>0.1411985208081069</v>
       </c>
       <c r="T4">
-        <v>0.1100086090206166</v>
+        <v>0.1411985208081069</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>196.252094</v>
       </c>
       <c r="I5">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J5">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.153886666666666</v>
+        <v>13.83830466666667</v>
       </c>
       <c r="N5">
-        <v>18.46166</v>
+        <v>41.514914</v>
       </c>
       <c r="O5">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="P5">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="Q5">
-        <v>402.5710481906711</v>
+        <v>905.2654227477685</v>
       </c>
       <c r="R5">
-        <v>3623.13943371604</v>
+        <v>8147.388804729917</v>
       </c>
       <c r="S5">
-        <v>0.01272329085318666</v>
+        <v>0.02462651724928828</v>
       </c>
       <c r="T5">
-        <v>0.01272329085318666</v>
+        <v>0.02462651724928829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>145.797898</v>
       </c>
       <c r="O6">
-        <v>0.637900629137472</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="P6">
-        <v>0.6379006291374719</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="Q6">
         <v>3179.238087033157</v>
@@ -821,10 +821,10 @@
         <v>28613.14278329841</v>
       </c>
       <c r="S6">
-        <v>0.1004800793664948</v>
+        <v>0.08648685747023281</v>
       </c>
       <c r="T6">
-        <v>0.1004800793664948</v>
+        <v>0.08648685747023283</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.43313066666667</v>
+        <v>25.766648</v>
       </c>
       <c r="N7">
-        <v>64.299392</v>
+        <v>77.299944</v>
       </c>
       <c r="O7">
-        <v>0.281325198597561</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="P7">
-        <v>0.2813251985975609</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="Q7">
-        <v>1402.09892476965</v>
+        <v>1685.586208453637</v>
       </c>
       <c r="R7">
-        <v>12618.89032292685</v>
+        <v>15170.27587608273</v>
       </c>
       <c r="S7">
-        <v>0.04431345101681342</v>
+        <v>0.04585408521585804</v>
       </c>
       <c r="T7">
-        <v>0.04431345101681341</v>
+        <v>0.04585408521585805</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H8">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I8">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J8">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.153886666666666</v>
+        <v>13.83830466666667</v>
       </c>
       <c r="N8">
-        <v>18.46166</v>
+        <v>41.514914</v>
       </c>
       <c r="O8">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="P8">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="Q8">
-        <v>376.4971678208066</v>
+        <v>836.3157468523264</v>
       </c>
       <c r="R8">
-        <v>3388.47451038726</v>
+        <v>7526.841721670938</v>
       </c>
       <c r="S8">
-        <v>0.01189922373482833</v>
+        <v>0.02275083489127</v>
       </c>
       <c r="T8">
-        <v>0.01189922373482833</v>
+        <v>0.02275083489127001</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H9">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I9">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J9">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>145.797898</v>
       </c>
       <c r="O9">
-        <v>0.637900629137472</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="P9">
-        <v>0.6379006291374719</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="Q9">
-        <v>2973.323941142175</v>
+        <v>2937.090944121173</v>
       </c>
       <c r="R9">
-        <v>26759.91547027957</v>
+        <v>26433.81849709055</v>
       </c>
       <c r="S9">
-        <v>0.09397214597006333</v>
+        <v>0.07989957307612934</v>
       </c>
       <c r="T9">
-        <v>0.09397214597006333</v>
+        <v>0.07989957307612935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H10">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.43313066666667</v>
+        <v>25.766648</v>
       </c>
       <c r="N10">
-        <v>64.299392</v>
+        <v>77.299944</v>
       </c>
       <c r="O10">
-        <v>0.281325198597561</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="P10">
-        <v>0.2813251985975609</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="Q10">
-        <v>1311.287228808235</v>
+        <v>1557.203283571851</v>
       </c>
       <c r="R10">
-        <v>11801.58505927411</v>
+        <v>14014.82955214666</v>
       </c>
       <c r="S10">
-        <v>0.04144333995000616</v>
+        <v>0.04236160197871101</v>
       </c>
       <c r="T10">
-        <v>0.04144333995000616</v>
+        <v>0.04236160197871102</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H11">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I11">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J11">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>6.153886666666666</v>
+        <v>13.83830466666667</v>
       </c>
       <c r="N11">
-        <v>18.46166</v>
+        <v>41.514914</v>
       </c>
       <c r="O11">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="P11">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="Q11">
-        <v>777.2786144864222</v>
+        <v>1238.051422751695</v>
       </c>
       <c r="R11">
-        <v>6995.507530377799</v>
+        <v>11142.46280476525</v>
       </c>
       <c r="S11">
-        <v>0.02456595408567155</v>
+        <v>0.03367950874049404</v>
       </c>
       <c r="T11">
-        <v>0.02456595408567155</v>
+        <v>0.03367950874049405</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H12">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I12">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J12">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>145.797898</v>
       </c>
       <c r="O12">
-        <v>0.637900629137472</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="P12">
-        <v>0.6379006291374719</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="Q12">
-        <v>6138.428946935037</v>
+        <v>4347.962639477139</v>
       </c>
       <c r="R12">
-        <v>55245.86052241534</v>
+        <v>39131.66375529426</v>
       </c>
       <c r="S12">
-        <v>0.1940055481498101</v>
+        <v>0.1182804227906303</v>
       </c>
       <c r="T12">
-        <v>0.1940055481498101</v>
+        <v>0.1182804227906304</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H13">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I13">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J13">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.43313066666667</v>
+        <v>25.766648</v>
       </c>
       <c r="N13">
-        <v>64.299392</v>
+        <v>77.299944</v>
       </c>
       <c r="O13">
-        <v>0.281325198597561</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="P13">
-        <v>0.2813251985975609</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="Q13">
-        <v>2707.153220570596</v>
+        <v>2305.227120254334</v>
       </c>
       <c r="R13">
-        <v>24364.37898513536</v>
+        <v>20747.044082289</v>
       </c>
       <c r="S13">
-        <v>0.0855597986101248</v>
+        <v>0.06271057527874682</v>
       </c>
       <c r="T13">
-        <v>0.0855597986101248</v>
+        <v>0.06271057527874682</v>
       </c>
     </row>
   </sheetData>
